--- a/resource/40.design/440.development/[Saturn]449crawling_insert/29밀크씨슬.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/29밀크씨슬.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rydga\OneDrive\바탕 화면\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4274D4-C70D-4819-92A8-5EDDB9A4872F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="0" windowWidth="13125" windowHeight="15600" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7020" tabRatio="745"/>
   </bookViews>
   <sheets>
     <sheet name="TB_SLE" sheetId="6" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TB_PRD!$A$2:$O$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TB_SLE_IMG!$A$2:$O$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -257,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -677,10 +676,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3:P14"/>
     </sheetView>
   </sheetViews>
@@ -747,10 +746,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="C3" s="6">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -769,11 +768,11 @@
       </c>
       <c r="I3" s="10">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -792,15 +791,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (228, 228, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (286, 286, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="C4" s="6">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -818,12 +817,12 @@
         <v>1</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" ref="H4:I14" ca="1" si="0">RANDBETWEEN(1, 5)</f>
-        <v>1</v>
+        <f t="shared" ref="I4:I14" ca="1" si="0">RANDBETWEEN(1, 5)</f>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J14" ca="1" si="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -842,15 +841,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P14" ca="1" si="2">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (229, 229, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (287, 287, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="C5" s="6">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -869,11 +868,11 @@
       </c>
       <c r="I5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -892,15 +891,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (230, 230, '솔가 밀크씨슬 250 캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (286, 286, '솔가 밀크씨슬 250 캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="C6" s="6">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -923,7 +922,7 @@
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -942,15 +941,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (231, 231, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (287, 287, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="C7" s="6">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -969,11 +968,11 @@
       </c>
       <c r="I7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -992,15 +991,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (232, 232, '네이처스웨이 밀크씨슬 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (286, 286, '네이처스웨이 밀크씨슬 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="C8" s="6">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1019,11 +1018,11 @@
       </c>
       <c r="I8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1042,15 +1041,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (233, 233, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (287, 287, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="C9" s="6">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1069,11 +1068,11 @@
       </c>
       <c r="I9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1092,15 +1091,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (234, 234, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (286, 286, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="C10" s="6">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1119,11 +1118,11 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
@@ -1142,15 +1141,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (235, 235, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (287, 287, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="C11" s="6">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1169,11 +1168,11 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1192,15 +1191,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (236, 236, '라이프익스텐션 어드밴스드 밀크씨슬 120 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002807/1000002807_main_022.jpg', 35600, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (286, 286, '라이프익스텐션 어드밴스드 밀크씨슬 120 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002807/1000002807_main_022.jpg', 35600, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C12" s="6">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1219,11 +1218,11 @@
       </c>
       <c r="I12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
@@ -1242,15 +1241,15 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (237, 237, '네이처스웨이 밀크씨슬 120캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/02/07/1000002196/1000002196_main_07.jpg', 99000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (287, 287, '네이처스웨이 밀크씨슬 120캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/02/07/1000002196/1000002196_main_07.jpg', 99000, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="C13" s="6">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1269,11 +1268,11 @@
       </c>
       <c r="I13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>23</v>
@@ -1292,15 +1291,15 @@
       </c>
       <c r="P13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (238, 238, '자로우 밀크씨슬 150mg 200캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/03/1000002765/1000002765_main_058.jpg', 27900, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (286, 286, '자로우 밀크씨슬 150mg 200캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/03/1000002765/1000002765_main_058.jpg', 27900, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="C14" s="6">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -1319,11 +1318,11 @@
       </c>
       <c r="I14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>23</v>
@@ -1342,7 +1341,7 @@
       </c>
       <c r="P14" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (239, 239, '솔가 밀크씨슬 250 캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001411/1000001411_main_086.jpg', 146400, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (287, 287, '솔가 밀크씨슬 250 캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001411/1000001411_main_086.jpg', 146400, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1548,7 +1547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F091BC-945F-4AFC-A78F-31DD57129174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
